--- a/data/trans_orig/AIRE_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A8707F-0B92-45A2-8BC3-414C79EAF83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A79BA06-0461-48A5-B873-915A9F20758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10DEFC1C-0D38-4408-A364-61B8E5E02BC2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2555A98-64B2-457C-9525-FCAC42256934}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>53,78%</t>
   </si>
   <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>74,82%</t>
   </si>
   <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,202 +104,202 @@
     <t>46,22%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>25,18%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>73,26%</t>
   </si>
   <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>74,69%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
   </si>
   <si>
     <t>25,31%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>73,66%</t>
   </si>
   <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>73,92%</t>
   </si>
   <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>68,98%</t>
   </si>
   <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,109 +308,109 @@
     <t>75,69%</t>
   </si>
   <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>79,82%</t>
   </si>
   <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>77,8%</t>
   </si>
   <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>20,18%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
   </si>
   <si>
     <t>73,46%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>25,97%</t>
   </si>
   <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B61347E-5B0E-402C-9EC4-E9E47AB983C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967BAE5-29BC-444E-9F4A-742A82A5C6EF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/AIRE_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_1_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A79BA06-0461-48A5-B873-915A9F20758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF25686-CDE8-4D67-843A-E43C2652E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F2555A98-64B2-457C-9525-FCAC42256934}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{69A9CA49-A605-4E60-B0A1-E463997A62F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si no está dispuesta a pagar para reducir la contaminación del aire (impuesto durante 5 años) en 2023 (Tasa respuesta: 50,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967BAE5-29BC-444E-9F4A-742A82A5C6EF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E910B-8313-4D65-B994-24014280D0CD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>4616</v>
+        <v>41903</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7">
-        <v>7119</v>
+        <v>49932</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="N4" s="7">
-        <v>11735</v>
+        <v>91835</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>3968</v>
+        <v>12956</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>2397</v>
+        <v>21588</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>6364</v>
+        <v>34544</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>8584</v>
+        <v>54859</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="I6" s="7">
-        <v>9516</v>
+        <v>71520</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="N6" s="7">
-        <v>18099</v>
+        <v>126379</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7">
-        <v>44416</v>
+        <v>64816</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I7" s="7">
-        <v>35610</v>
+        <v>99526</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="N7" s="7">
-        <v>80026</v>
+        <v>164342</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>16215</v>
+        <v>22970</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I8" s="7">
-        <v>10903</v>
+        <v>36081</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="N8" s="7">
-        <v>27118</v>
+        <v>59051</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D9" s="7">
-        <v>60631</v>
+        <v>87786</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="I9" s="7">
-        <v>46513</v>
+        <v>135607</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>168</v>
+        <v>326</v>
       </c>
       <c r="N9" s="7">
-        <v>107144</v>
+        <v>223393</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>98025</v>
+        <v>75450</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
-        <v>65866</v>
+        <v>64816</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="N10" s="7">
-        <v>163892</v>
+        <v>140266</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>34270</v>
+        <v>24468</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>23554</v>
+        <v>24556</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>57824</v>
+        <v>49024</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="D12" s="7">
-        <v>132295</v>
+        <v>99918</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="I12" s="7">
-        <v>89420</v>
+        <v>89372</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>326</v>
+        <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>221716</v>
+        <v>189290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>60241</v>
+        <v>71506</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="I13" s="7">
-        <v>55103</v>
+        <v>67415</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>115344</v>
+        <v>138922</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>23048</v>
+        <v>17474</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>24780</v>
+        <v>22235</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>47828</v>
+        <v>39708</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>83289</v>
+        <v>88980</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>79883</v>
+        <v>89650</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="N15" s="7">
-        <v>163172</v>
+        <v>178630</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>346</v>
       </c>
       <c r="D16" s="7">
-        <v>65304</v>
+        <v>253675</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>372</v>
+      </c>
+      <c r="I16" s="7">
+        <v>281689</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>100</v>
-      </c>
-      <c r="I16" s="7">
-        <v>72378</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>718</v>
+      </c>
+      <c r="N16" s="7">
+        <v>535363</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>186</v>
-      </c>
-      <c r="N16" s="7">
-        <v>137683</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="D17" s="7">
-        <v>20974</v>
+        <v>77868</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>139</v>
+      </c>
+      <c r="I17" s="7">
+        <v>104460</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>28</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18303</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>261</v>
+      </c>
+      <c r="N17" s="7">
+        <v>182328</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>57</v>
-      </c>
-      <c r="N17" s="7">
-        <v>39276</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>115</v>
+        <v>468</v>
       </c>
       <c r="D18" s="7">
-        <v>86278</v>
+        <v>331543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>128</v>
+        <v>511</v>
       </c>
       <c r="I18" s="7">
-        <v>90681</v>
+        <v>386149</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>243</v>
+        <v>979</v>
       </c>
       <c r="N18" s="7">
-        <v>176959</v>
+        <v>717691</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>372</v>
-      </c>
-      <c r="D19" s="7">
-        <v>272603</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>346</v>
-      </c>
-      <c r="I19" s="7">
-        <v>236078</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>718</v>
-      </c>
-      <c r="N19" s="7">
-        <v>508681</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>139</v>
-      </c>
-      <c r="D20" s="7">
-        <v>98474</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>122</v>
-      </c>
-      <c r="I20" s="7">
-        <v>79936</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>261</v>
-      </c>
-      <c r="N20" s="7">
-        <v>178409</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>511</v>
-      </c>
-      <c r="D21" s="7">
-        <v>371077</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>468</v>
-      </c>
-      <c r="I21" s="7">
-        <v>316014</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>979</v>
-      </c>
-      <c r="N21" s="7">
-        <v>687090</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
